--- a/8/5/1/Exportaciones 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Exportaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>Serie</t>
   </si>
@@ -897,6 +897,9 @@
   <si>
     <t>01-06-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1253,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT223"/>
+  <dimension ref="A1:BT224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -48570,19 +48573,19 @@
         <v>288</v>
       </c>
       <c r="B218">
-        <v>7094</v>
+        <v>7177</v>
       </c>
       <c r="C218">
-        <v>3552</v>
+        <v>3647</v>
       </c>
       <c r="D218">
-        <v>3188</v>
+        <v>3283</v>
       </c>
       <c r="E218">
-        <v>1297</v>
+        <v>1316</v>
       </c>
       <c r="F218">
-        <v>1787</v>
+        <v>1855</v>
       </c>
       <c r="G218">
         <v>150</v>
@@ -48603,13 +48606,13 @@
         <v>10</v>
       </c>
       <c r="M218">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="N218">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="O218">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P218">
         <v>1</v>
@@ -48618,22 +48621,22 @@
         <v>1</v>
       </c>
       <c r="R218">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="S218">
         <v>0</v>
       </c>
       <c r="T218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U218">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="V218">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W218">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X218">
         <v>1</v>
@@ -48648,10 +48651,10 @@
         <v>8</v>
       </c>
       <c r="AB218">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="AC218">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AD218">
         <v>19</v>
@@ -48660,7 +48663,7 @@
         <v>7</v>
       </c>
       <c r="AF218">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AG218">
         <v>33</v>
@@ -48738,13 +48741,13 @@
         <v>34</v>
       </c>
       <c r="BF218">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="BG218">
         <v>20</v>
       </c>
       <c r="BH218">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI218">
         <v>20</v>
@@ -48753,7 +48756,7 @@
         <v>40</v>
       </c>
       <c r="BK218">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BL218">
         <v>33</v>
@@ -48788,19 +48791,19 @@
         <v>289</v>
       </c>
       <c r="B219">
-        <v>7142</v>
+        <v>7294</v>
       </c>
       <c r="C219">
-        <v>4416</v>
+        <v>4510</v>
       </c>
       <c r="D219">
-        <v>4161</v>
+        <v>4254</v>
       </c>
       <c r="E219">
-        <v>1622</v>
+        <v>1636</v>
       </c>
       <c r="F219">
-        <v>2363</v>
+        <v>2443</v>
       </c>
       <c r="G219">
         <v>80</v>
@@ -48821,34 +48824,34 @@
         <v>9</v>
       </c>
       <c r="M219">
-        <v>807</v>
+        <v>867</v>
       </c>
       <c r="N219">
-        <v>765</v>
+        <v>825</v>
       </c>
       <c r="O219">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="P219">
         <v>8</v>
       </c>
       <c r="Q219">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R219">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S219">
         <v>0</v>
       </c>
       <c r="T219">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="U219">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="V219">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W219">
         <v>30</v>
@@ -48866,10 +48869,10 @@
         <v>8</v>
       </c>
       <c r="AB219">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AC219">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="AD219">
         <v>21</v>
@@ -48878,7 +48881,7 @@
         <v>11</v>
       </c>
       <c r="AF219">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AG219">
         <v>34</v>
@@ -48923,13 +48926,13 @@
         <v>28</v>
       </c>
       <c r="AU219">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AV219">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AW219">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX219">
         <v>19</v>
@@ -48962,7 +48965,7 @@
         <v>15</v>
       </c>
       <c r="BH219">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BI219">
         <v>10</v>
@@ -48971,16 +48974,16 @@
         <v>31</v>
       </c>
       <c r="BK219">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BL219">
         <v>26</v>
       </c>
       <c r="BM219">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BN219">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BO219">
         <v>16</v>
@@ -49006,19 +49009,19 @@
         <v>290</v>
       </c>
       <c r="B220">
-        <v>7661</v>
+        <v>7761</v>
       </c>
       <c r="C220">
-        <v>4887</v>
+        <v>4953</v>
       </c>
       <c r="D220">
-        <v>4488</v>
+        <v>4554</v>
       </c>
       <c r="E220">
-        <v>1797</v>
+        <v>1825</v>
       </c>
       <c r="F220">
-        <v>2511</v>
+        <v>2547</v>
       </c>
       <c r="G220">
         <v>206</v>
@@ -49039,40 +49042,40 @@
         <v>14</v>
       </c>
       <c r="M220">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="N220">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="O220">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="P220">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q220">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R220">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="S220">
         <v>2</v>
       </c>
       <c r="T220">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="U220">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V220">
         <v>4</v>
       </c>
       <c r="W220">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X220">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y220">
         <v>15</v>
@@ -49087,7 +49090,7 @@
         <v>2170</v>
       </c>
       <c r="AC220">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AD220">
         <v>32</v>
@@ -49096,7 +49099,7 @@
         <v>13</v>
       </c>
       <c r="AF220">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG220">
         <v>39</v>
@@ -49174,7 +49177,7 @@
         <v>36</v>
       </c>
       <c r="BF220">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BG220">
         <v>28</v>
@@ -49213,7 +49216,7 @@
         <v>69</v>
       </c>
       <c r="BS220">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BT220">
         <v>99</v>
@@ -49224,19 +49227,19 @@
         <v>291</v>
       </c>
       <c r="B221">
-        <v>8114</v>
+        <v>8160</v>
       </c>
       <c r="C221">
-        <v>5011</v>
+        <v>5067</v>
       </c>
       <c r="D221">
-        <v>4541</v>
+        <v>4598</v>
       </c>
       <c r="E221">
-        <v>1740</v>
+        <v>1746</v>
       </c>
       <c r="F221">
-        <v>2569</v>
+        <v>2616</v>
       </c>
       <c r="G221">
         <v>214</v>
@@ -49248,7 +49251,7 @@
         <v>78</v>
       </c>
       <c r="J221">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K221">
         <v>97</v>
@@ -49284,13 +49287,13 @@
         <v>1</v>
       </c>
       <c r="V221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W221">
         <v>83</v>
       </c>
       <c r="X221">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y221">
         <v>23</v>
@@ -49302,10 +49305,10 @@
         <v>12</v>
       </c>
       <c r="AB221">
-        <v>2523</v>
+        <v>2513</v>
       </c>
       <c r="AC221">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="AD221">
         <v>30</v>
@@ -49314,10 +49317,10 @@
         <v>16</v>
       </c>
       <c r="AF221">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG221">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH221">
         <v>5</v>
@@ -49356,7 +49359,7 @@
         <v>139</v>
       </c>
       <c r="AT221">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU221">
         <v>205</v>
@@ -49392,7 +49395,7 @@
         <v>34</v>
       </c>
       <c r="BF221">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="BG221">
         <v>27</v>
@@ -49422,19 +49425,19 @@
         <v>20</v>
       </c>
       <c r="BP221">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="BQ221">
         <v>30</v>
       </c>
       <c r="BR221">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BS221">
+        <v>70</v>
+      </c>
+      <c r="BT221">
         <v>74</v>
-      </c>
-      <c r="BT221">
-        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:72">
@@ -49442,19 +49445,19 @@
         <v>292</v>
       </c>
       <c r="B222">
-        <v>7920</v>
+        <v>7621</v>
       </c>
       <c r="C222">
-        <v>5333</v>
+        <v>5029</v>
       </c>
       <c r="D222">
-        <v>4967</v>
+        <v>4663</v>
       </c>
       <c r="E222">
-        <v>1817</v>
+        <v>1715</v>
       </c>
       <c r="F222">
-        <v>2864</v>
+        <v>2667</v>
       </c>
       <c r="G222">
         <v>173</v>
@@ -49520,7 +49523,7 @@
         <v>9</v>
       </c>
       <c r="AB222">
-        <v>2199</v>
+        <v>2204</v>
       </c>
       <c r="AC222">
         <v>879</v>
@@ -49577,7 +49580,7 @@
         <v>28</v>
       </c>
       <c r="AU222">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AV222">
         <v>65</v>
@@ -49610,7 +49613,7 @@
         <v>25</v>
       </c>
       <c r="BF222">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="BG222">
         <v>26</v>
@@ -49625,22 +49628,22 @@
         <v>29</v>
       </c>
       <c r="BK222">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BL222">
         <v>33</v>
       </c>
       <c r="BM222">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BN222">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BO222">
         <v>39</v>
       </c>
       <c r="BP222">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BQ222">
         <v>28</v>
@@ -49649,7 +49652,7 @@
         <v>61</v>
       </c>
       <c r="BS222">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BT222">
         <v>85</v>
@@ -49660,19 +49663,19 @@
         <v>293</v>
       </c>
       <c r="B223">
-        <v>7445</v>
+        <v>7453</v>
       </c>
       <c r="C223">
-        <v>4794</v>
+        <v>4803</v>
       </c>
       <c r="D223">
-        <v>4367</v>
+        <v>4375</v>
       </c>
       <c r="E223">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="F223">
-        <v>2578</v>
+        <v>2585</v>
       </c>
       <c r="G223">
         <v>219</v>
@@ -49738,10 +49741,10 @@
         <v>10</v>
       </c>
       <c r="AB223">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="AC223">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AD223">
         <v>49</v>
@@ -49777,13 +49780,13 @@
         <v>12</v>
       </c>
       <c r="AO223">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP223">
         <v>68</v>
       </c>
       <c r="AQ223">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR223">
         <v>5</v>
@@ -49828,7 +49831,7 @@
         <v>24</v>
       </c>
       <c r="BF223">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="BG223">
         <v>17</v>
@@ -49858,7 +49861,7 @@
         <v>26</v>
       </c>
       <c r="BP223">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BQ223">
         <v>27</v>
@@ -49867,10 +49870,228 @@
         <v>67</v>
       </c>
       <c r="BS223">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BT223">
-        <v>81</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" spans="1:72">
+      <c r="A224" t="s">
+        <v>294</v>
+      </c>
+      <c r="B224">
+        <v>7943</v>
+      </c>
+      <c r="C224">
+        <v>5144</v>
+      </c>
+      <c r="D224">
+        <v>4584</v>
+      </c>
+      <c r="E224">
+        <v>1762</v>
+      </c>
+      <c r="F224">
+        <v>2586</v>
+      </c>
+      <c r="G224">
+        <v>347</v>
+      </c>
+      <c r="H224">
+        <v>35</v>
+      </c>
+      <c r="I224">
+        <v>61</v>
+      </c>
+      <c r="J224">
+        <v>28</v>
+      </c>
+      <c r="K224">
+        <v>84</v>
+      </c>
+      <c r="L224">
+        <v>6</v>
+      </c>
+      <c r="M224">
+        <v>419</v>
+      </c>
+      <c r="N224">
+        <v>346</v>
+      </c>
+      <c r="O224">
+        <v>2</v>
+      </c>
+      <c r="P224">
+        <v>100</v>
+      </c>
+      <c r="Q224">
+        <v>10</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>40</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>56</v>
+      </c>
+      <c r="X224">
+        <v>6</v>
+      </c>
+      <c r="Y224">
+        <v>25</v>
+      </c>
+      <c r="Z224">
+        <v>4</v>
+      </c>
+      <c r="AA224">
+        <v>13</v>
+      </c>
+      <c r="AB224">
+        <v>2379</v>
+      </c>
+      <c r="AC224">
+        <v>890</v>
+      </c>
+      <c r="AD224">
+        <v>53</v>
+      </c>
+      <c r="AE224">
+        <v>14</v>
+      </c>
+      <c r="AF224">
+        <v>326</v>
+      </c>
+      <c r="AG224">
+        <v>29</v>
+      </c>
+      <c r="AH224">
+        <v>12</v>
+      </c>
+      <c r="AI224">
+        <v>5</v>
+      </c>
+      <c r="AJ224">
+        <v>58</v>
+      </c>
+      <c r="AK224">
+        <v>36</v>
+      </c>
+      <c r="AL224">
+        <v>45</v>
+      </c>
+      <c r="AM224">
+        <v>26</v>
+      </c>
+      <c r="AN224">
+        <v>11</v>
+      </c>
+      <c r="AO224">
+        <v>49</v>
+      </c>
+      <c r="AP224">
+        <v>69</v>
+      </c>
+      <c r="AQ224">
+        <v>177</v>
+      </c>
+      <c r="AR224">
+        <v>10</v>
+      </c>
+      <c r="AS224">
+        <v>138</v>
+      </c>
+      <c r="AT224">
+        <v>26</v>
+      </c>
+      <c r="AU224">
+        <v>234</v>
+      </c>
+      <c r="AV224">
+        <v>78</v>
+      </c>
+      <c r="AW224">
+        <v>26</v>
+      </c>
+      <c r="AX224">
+        <v>30</v>
+      </c>
+      <c r="AY224">
+        <v>32</v>
+      </c>
+      <c r="AZ224">
+        <v>41</v>
+      </c>
+      <c r="BA224">
+        <v>348</v>
+      </c>
+      <c r="BB224">
+        <v>34</v>
+      </c>
+      <c r="BC224">
+        <v>129</v>
+      </c>
+      <c r="BD224">
+        <v>104</v>
+      </c>
+      <c r="BE224">
+        <v>28</v>
+      </c>
+      <c r="BF224">
+        <v>413</v>
+      </c>
+      <c r="BG224">
+        <v>5</v>
+      </c>
+      <c r="BH224">
+        <v>40</v>
+      </c>
+      <c r="BI224">
+        <v>17</v>
+      </c>
+      <c r="BJ224">
+        <v>38</v>
+      </c>
+      <c r="BK224">
+        <v>105</v>
+      </c>
+      <c r="BL224">
+        <v>28</v>
+      </c>
+      <c r="BM224">
+        <v>73</v>
+      </c>
+      <c r="BN224">
+        <v>15</v>
+      </c>
+      <c r="BO224">
+        <v>26</v>
+      </c>
+      <c r="BP224">
+        <v>169</v>
+      </c>
+      <c r="BQ224">
+        <v>35</v>
+      </c>
+      <c r="BR224">
+        <v>74</v>
+      </c>
+      <c r="BS224">
+        <v>60</v>
+      </c>
+      <c r="BT224">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/8/5/1/Exportaciones 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Exportaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>Serie</t>
   </si>
@@ -900,6 +900,9 @@
   <si>
     <t>01-07-2021</t>
   </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1256,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT224"/>
+  <dimension ref="A1:BT225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50094,6 +50097,224 @@
         <v>76</v>
       </c>
     </row>
+    <row r="225" spans="1:72">
+      <c r="A225" t="s">
+        <v>295</v>
+      </c>
+      <c r="B225">
+        <v>7822</v>
+      </c>
+      <c r="C225">
+        <v>4834</v>
+      </c>
+      <c r="D225">
+        <v>4383</v>
+      </c>
+      <c r="E225">
+        <v>1835</v>
+      </c>
+      <c r="F225">
+        <v>2343</v>
+      </c>
+      <c r="G225">
+        <v>204</v>
+      </c>
+      <c r="H225">
+        <v>37</v>
+      </c>
+      <c r="I225">
+        <v>71</v>
+      </c>
+      <c r="J225">
+        <v>57</v>
+      </c>
+      <c r="K225">
+        <v>63</v>
+      </c>
+      <c r="L225">
+        <v>17</v>
+      </c>
+      <c r="M225">
+        <v>393</v>
+      </c>
+      <c r="N225">
+        <v>343</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>83</v>
+      </c>
+      <c r="Q225">
+        <v>9</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>42</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>2</v>
+      </c>
+      <c r="W225">
+        <v>36</v>
+      </c>
+      <c r="X225">
+        <v>2</v>
+      </c>
+      <c r="Y225">
+        <v>14</v>
+      </c>
+      <c r="Z225">
+        <v>6</v>
+      </c>
+      <c r="AA225">
+        <v>9</v>
+      </c>
+      <c r="AB225">
+        <v>2594</v>
+      </c>
+      <c r="AC225">
+        <v>922</v>
+      </c>
+      <c r="AD225">
+        <v>47</v>
+      </c>
+      <c r="AE225">
+        <v>19</v>
+      </c>
+      <c r="AF225">
+        <v>378</v>
+      </c>
+      <c r="AG225">
+        <v>21</v>
+      </c>
+      <c r="AH225">
+        <v>3</v>
+      </c>
+      <c r="AI225">
+        <v>4</v>
+      </c>
+      <c r="AJ225">
+        <v>59</v>
+      </c>
+      <c r="AK225">
+        <v>29</v>
+      </c>
+      <c r="AL225">
+        <v>39</v>
+      </c>
+      <c r="AM225">
+        <v>23</v>
+      </c>
+      <c r="AN225">
+        <v>10</v>
+      </c>
+      <c r="AO225">
+        <v>49</v>
+      </c>
+      <c r="AP225">
+        <v>63</v>
+      </c>
+      <c r="AQ225">
+        <v>177</v>
+      </c>
+      <c r="AR225">
+        <v>4</v>
+      </c>
+      <c r="AS225">
+        <v>136</v>
+      </c>
+      <c r="AT225">
+        <v>29</v>
+      </c>
+      <c r="AU225">
+        <v>268</v>
+      </c>
+      <c r="AV225">
+        <v>80</v>
+      </c>
+      <c r="AW225">
+        <v>26</v>
+      </c>
+      <c r="AX225">
+        <v>36</v>
+      </c>
+      <c r="AY225">
+        <v>43</v>
+      </c>
+      <c r="AZ225">
+        <v>57</v>
+      </c>
+      <c r="BA225">
+        <v>308</v>
+      </c>
+      <c r="BB225">
+        <v>24</v>
+      </c>
+      <c r="BC225">
+        <v>115</v>
+      </c>
+      <c r="BD225">
+        <v>99</v>
+      </c>
+      <c r="BE225">
+        <v>26</v>
+      </c>
+      <c r="BF225">
+        <v>537</v>
+      </c>
+      <c r="BG225">
+        <v>17</v>
+      </c>
+      <c r="BH225">
+        <v>39</v>
+      </c>
+      <c r="BI225">
+        <v>46</v>
+      </c>
+      <c r="BJ225">
+        <v>50</v>
+      </c>
+      <c r="BK225">
+        <v>185</v>
+      </c>
+      <c r="BL225">
+        <v>25</v>
+      </c>
+      <c r="BM225">
+        <v>112</v>
+      </c>
+      <c r="BN225">
+        <v>22</v>
+      </c>
+      <c r="BO225">
+        <v>35</v>
+      </c>
+      <c r="BP225">
+        <v>189</v>
+      </c>
+      <c r="BQ225">
+        <v>29</v>
+      </c>
+      <c r="BR225">
+        <v>105</v>
+      </c>
+      <c r="BS225">
+        <v>54</v>
+      </c>
+      <c r="BT225">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/5/1/Exportaciones 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Exportaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>Serie</t>
   </si>
@@ -903,6 +903,9 @@
   <si>
     <t>01-08-2021</t>
   </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1259,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT225"/>
+  <dimension ref="A1:BT226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50315,6 +50318,224 @@
         <v>81</v>
       </c>
     </row>
+    <row r="226" spans="1:72">
+      <c r="A226" t="s">
+        <v>296</v>
+      </c>
+      <c r="B226">
+        <v>7429</v>
+      </c>
+      <c r="C226">
+        <v>4721</v>
+      </c>
+      <c r="D226">
+        <v>4157</v>
+      </c>
+      <c r="E226">
+        <v>1759</v>
+      </c>
+      <c r="F226">
+        <v>2243</v>
+      </c>
+      <c r="G226">
+        <v>289</v>
+      </c>
+      <c r="H226">
+        <v>33</v>
+      </c>
+      <c r="I226">
+        <v>70</v>
+      </c>
+      <c r="J226">
+        <v>42</v>
+      </c>
+      <c r="K226">
+        <v>105</v>
+      </c>
+      <c r="L226">
+        <v>11</v>
+      </c>
+      <c r="M226">
+        <v>316</v>
+      </c>
+      <c r="N226">
+        <v>278</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>40</v>
+      </c>
+      <c r="Q226">
+        <v>5</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>21</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>23</v>
+      </c>
+      <c r="W226">
+        <v>27</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <v>7</v>
+      </c>
+      <c r="Z226">
+        <v>3</v>
+      </c>
+      <c r="AA226">
+        <v>8</v>
+      </c>
+      <c r="AB226">
+        <v>2392</v>
+      </c>
+      <c r="AC226">
+        <v>860</v>
+      </c>
+      <c r="AD226">
+        <v>21</v>
+      </c>
+      <c r="AE226">
+        <v>11</v>
+      </c>
+      <c r="AF226">
+        <v>398</v>
+      </c>
+      <c r="AG226">
+        <v>20</v>
+      </c>
+      <c r="AH226">
+        <v>11</v>
+      </c>
+      <c r="AI226">
+        <v>3</v>
+      </c>
+      <c r="AJ226">
+        <v>56</v>
+      </c>
+      <c r="AK226">
+        <v>39</v>
+      </c>
+      <c r="AL226">
+        <v>33</v>
+      </c>
+      <c r="AM226">
+        <v>26</v>
+      </c>
+      <c r="AN226">
+        <v>9</v>
+      </c>
+      <c r="AO226">
+        <v>56</v>
+      </c>
+      <c r="AP226">
+        <v>45</v>
+      </c>
+      <c r="AQ226">
+        <v>175</v>
+      </c>
+      <c r="AR226">
+        <v>8</v>
+      </c>
+      <c r="AS226">
+        <v>132</v>
+      </c>
+      <c r="AT226">
+        <v>30</v>
+      </c>
+      <c r="AU226">
+        <v>220</v>
+      </c>
+      <c r="AV226">
+        <v>80</v>
+      </c>
+      <c r="AW226">
+        <v>17</v>
+      </c>
+      <c r="AX226">
+        <v>30</v>
+      </c>
+      <c r="AY226">
+        <v>33</v>
+      </c>
+      <c r="AZ226">
+        <v>37</v>
+      </c>
+      <c r="BA226">
+        <v>268</v>
+      </c>
+      <c r="BB226">
+        <v>28</v>
+      </c>
+      <c r="BC226">
+        <v>95</v>
+      </c>
+      <c r="BD226">
+        <v>68</v>
+      </c>
+      <c r="BE226">
+        <v>28</v>
+      </c>
+      <c r="BF226">
+        <v>478</v>
+      </c>
+      <c r="BG226">
+        <v>13</v>
+      </c>
+      <c r="BH226">
+        <v>25</v>
+      </c>
+      <c r="BI226">
+        <v>35</v>
+      </c>
+      <c r="BJ226">
+        <v>46</v>
+      </c>
+      <c r="BK226">
+        <v>141</v>
+      </c>
+      <c r="BL226">
+        <v>30</v>
+      </c>
+      <c r="BM226">
+        <v>121</v>
+      </c>
+      <c r="BN226">
+        <v>53</v>
+      </c>
+      <c r="BO226">
+        <v>23</v>
+      </c>
+      <c r="BP226">
+        <v>162</v>
+      </c>
+      <c r="BQ226">
+        <v>25</v>
+      </c>
+      <c r="BR226">
+        <v>82</v>
+      </c>
+      <c r="BS226">
+        <v>55</v>
+      </c>
+      <c r="BT226">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/5/1/Exportaciones 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Exportaciones 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>Serie</t>
   </si>
@@ -906,6 +906,9 @@
   <si>
     <t>01-09-2021</t>
   </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1262,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT226"/>
+  <dimension ref="A1:BT227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -50536,6 +50539,224 @@
         <v>107</v>
       </c>
     </row>
+    <row r="227" spans="1:72">
+      <c r="A227" t="s">
+        <v>297</v>
+      </c>
+      <c r="B227">
+        <v>7768</v>
+      </c>
+      <c r="C227">
+        <v>4949</v>
+      </c>
+      <c r="D227">
+        <v>4481</v>
+      </c>
+      <c r="E227">
+        <v>1825</v>
+      </c>
+      <c r="F227">
+        <v>2489</v>
+      </c>
+      <c r="G227">
+        <v>185</v>
+      </c>
+      <c r="H227">
+        <v>37</v>
+      </c>
+      <c r="I227">
+        <v>102</v>
+      </c>
+      <c r="J227">
+        <v>43</v>
+      </c>
+      <c r="K227">
+        <v>82</v>
+      </c>
+      <c r="L227">
+        <v>17</v>
+      </c>
+      <c r="M227">
+        <v>343</v>
+      </c>
+      <c r="N227">
+        <v>292</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>26</v>
+      </c>
+      <c r="Q227">
+        <v>4</v>
+      </c>
+      <c r="R227">
+        <v>8</v>
+      </c>
+      <c r="S227">
+        <v>8</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>79</v>
+      </c>
+      <c r="W227">
+        <v>34</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>10</v>
+      </c>
+      <c r="Z227">
+        <v>7</v>
+      </c>
+      <c r="AA227">
+        <v>10</v>
+      </c>
+      <c r="AB227">
+        <v>2476</v>
+      </c>
+      <c r="AC227">
+        <v>939</v>
+      </c>
+      <c r="AD227">
+        <v>24</v>
+      </c>
+      <c r="AE227">
+        <v>13</v>
+      </c>
+      <c r="AF227">
+        <v>481</v>
+      </c>
+      <c r="AG227">
+        <v>13</v>
+      </c>
+      <c r="AH227">
+        <v>7</v>
+      </c>
+      <c r="AI227">
+        <v>6</v>
+      </c>
+      <c r="AJ227">
+        <v>48</v>
+      </c>
+      <c r="AK227">
+        <v>45</v>
+      </c>
+      <c r="AL227">
+        <v>32</v>
+      </c>
+      <c r="AM227">
+        <v>18</v>
+      </c>
+      <c r="AN227">
+        <v>12</v>
+      </c>
+      <c r="AO227">
+        <v>47</v>
+      </c>
+      <c r="AP227">
+        <v>54</v>
+      </c>
+      <c r="AQ227">
+        <v>177</v>
+      </c>
+      <c r="AR227">
+        <v>8</v>
+      </c>
+      <c r="AS227">
+        <v>133</v>
+      </c>
+      <c r="AT227">
+        <v>32</v>
+      </c>
+      <c r="AU227">
+        <v>246</v>
+      </c>
+      <c r="AV227">
+        <v>91</v>
+      </c>
+      <c r="AW227">
+        <v>19</v>
+      </c>
+      <c r="AX227">
+        <v>30</v>
+      </c>
+      <c r="AY227">
+        <v>36</v>
+      </c>
+      <c r="AZ227">
+        <v>41</v>
+      </c>
+      <c r="BA227">
+        <v>248</v>
+      </c>
+      <c r="BB227">
+        <v>26</v>
+      </c>
+      <c r="BC227">
+        <v>100</v>
+      </c>
+      <c r="BD227">
+        <v>61</v>
+      </c>
+      <c r="BE227">
+        <v>29</v>
+      </c>
+      <c r="BF227">
+        <v>501</v>
+      </c>
+      <c r="BG227">
+        <v>22</v>
+      </c>
+      <c r="BH227">
+        <v>73</v>
+      </c>
+      <c r="BI227">
+        <v>29</v>
+      </c>
+      <c r="BJ227">
+        <v>48</v>
+      </c>
+      <c r="BK227">
+        <v>112</v>
+      </c>
+      <c r="BL227">
+        <v>26</v>
+      </c>
+      <c r="BM227">
+        <v>77</v>
+      </c>
+      <c r="BN227">
+        <v>9</v>
+      </c>
+      <c r="BO227">
+        <v>43</v>
+      </c>
+      <c r="BP227">
+        <v>174</v>
+      </c>
+      <c r="BQ227">
+        <v>33</v>
+      </c>
+      <c r="BR227">
+        <v>94</v>
+      </c>
+      <c r="BS227">
+        <v>47</v>
+      </c>
+      <c r="BT227">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
